--- a/plain_invoices/A&E.xlsx
+++ b/plain_invoices/A&E.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrique Aguiar\Desktop\Canoe_Git\plain_invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EDF977-C52E-4E10-99B6-D1DB0F98AC76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE08717-9810-4606-A34E-C82EB8399BCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="3330" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Invoice!$B$27:$K$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$L$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$L$62</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Invoice!$27:$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>Invoice Date:</t>
   </si>
@@ -241,10 +241,19 @@
     <t>Campaign Name</t>
   </si>
   <si>
+    <t>Sub-totals by Network:</t>
+  </si>
+  <si>
     <t>Network</t>
   </si>
   <si>
     <t>A&amp;E</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>History</t>
   </si>
   <si>
     <t xml:space="preserve">235 East 45th </t>
@@ -4024,7 +4033,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4055,6 +4064,10 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4160,6 +4173,9 @@
     <xf numFmtId="44" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -4168,18 +4184,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="1684"/>
-    <xf numFmtId="14" fontId="65" fillId="0" borderId="0" xfId="1684" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="65" fillId="0" borderId="0" xfId="1684" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="2807" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4226,11 +4236,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="1684" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="65" fillId="0" borderId="0" xfId="1684" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7454,10 +7461,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:R160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7495,7 +7502,7 @@
       <c r="J1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="37"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -7509,7 +7516,7 @@
       <c r="J2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="85"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -7531,13 +7538,13 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -7548,47 +7555,47 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="95" t="s">
+      <c r="G5" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -7599,13 +7606,13 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
+      <c r="G8" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -7616,13 +7623,13 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
+      <c r="G9" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -7642,53 +7649,53 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="90" t="s">
+      <c r="G11" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>41</v>
+      <c r="D12" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="92" t="s">
+      <c r="G12" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="C13" s="13"/>
       <c r="D13" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="93" t="s">
+      <c r="G13" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="C14" s="13"/>
       <c r="D14" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -7697,7 +7704,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="O14" s="62"/>
+      <c r="O14" s="64"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -7705,223 +7712,223 @@
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="94" t="s">
+      <c r="G15" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="O15" s="79"/>
-      <c r="Q15" s="67"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="O15" s="78"/>
+      <c r="Q15" s="66"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="80" t="s">
-        <v>46</v>
+      <c r="D16" s="79" t="s">
+        <v>49</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="68"/>
+      <c r="K16" s="22"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="67"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="C17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43" t="s">
+      <c r="G17" s="44"/>
+      <c r="H17" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="46">
         <v>1.28</v>
       </c>
-      <c r="J17" s="45"/>
-      <c r="K17" s="34"/>
-      <c r="N17" s="62"/>
-      <c r="Q17" s="68"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="36"/>
+      <c r="N17" s="64"/>
+      <c r="Q17" s="67"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43" t="s">
+      <c r="G18" s="44"/>
+      <c r="H18" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="46">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="67"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="66"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="35"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43" t="s">
+      <c r="G19" s="44"/>
+      <c r="H19" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="46">
         <v>0.99</v>
       </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="34"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="62"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="36"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="64"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>38</v>
+      <c r="D20" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43" t="s">
+      <c r="G20" s="44"/>
+      <c r="H20" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="46">
         <v>0.85</v>
       </c>
-      <c r="J20" s="45"/>
-      <c r="K20" s="34"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="68"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="36"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="67"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>48</v>
+      <c r="D21" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="44">
+      <c r="G21" s="44"/>
+      <c r="H21" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="46">
         <v>0.71</v>
       </c>
-      <c r="J21" s="45"/>
-      <c r="K21" s="34"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="67"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="36"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="66"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="47"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="44">
+      <c r="G22" s="44"/>
+      <c r="H22" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="46">
         <v>0.61</v>
       </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="34"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="36"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="24"/>
-      <c r="D23" s="47"/>
+      <c r="B23" s="26"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="44">
+      <c r="G23" s="44"/>
+      <c r="H23" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="46">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="34"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="68"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="36"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="67"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="24"/>
-      <c r="D24" s="47"/>
+      <c r="B24" s="26"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="44">
+      <c r="G24" s="44"/>
+      <c r="H24" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="46">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J24" s="46"/>
-      <c r="K24" s="34"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="36"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="24"/>
-      <c r="D25" s="47"/>
+      <c r="B25" s="26"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="44">
+      <c r="G25" s="44"/>
+      <c r="H25" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="46">
         <v>0.5</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="34"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="36"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
@@ -7936,382 +7943,844 @@
       <c r="J26" s="8"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="82"/>
+      <c r="N26" s="81"/>
     </row>
     <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="43"/>
+      <c r="C28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="64"/>
+      <c r="N28" s="64"/>
+    </row>
+    <row r="29" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="43"/>
+      <c r="C29" s="40"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="64"/>
+      <c r="N29" s="64"/>
+    </row>
+    <row r="30" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="43"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="17"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="64"/>
+      <c r="N30" s="64"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="43"/>
+      <c r="C31" s="40"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="41"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="62"/>
-      <c r="N28" s="62"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="41"/>
-      <c r="C29" s="38"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="62">
-        <f>SUMIF($E$28:$E$28,$H29,$I$28:$I$28)</f>
+      <c r="H31" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="64">
+        <f t="shared" ref="I31:I36" si="0">SUMIF($E$28:$E$28,$H31,$I$28:$I$28)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="40"/>
-      <c r="K29" s="53">
-        <f>SUMIF($E$28:$E$28,$H29,$K$28:$K$28)</f>
+      <c r="J31" s="42"/>
+      <c r="K31" s="55">
+        <f t="shared" ref="K31:K36" si="1">SUMIF($E$28:$E$28,$H31,$K$28:$K$28)</f>
         <v>0</v>
       </c>
-      <c r="L29" s="62"/>
-      <c r="N29" s="62"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="41"/>
-      <c r="C30" s="38"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="62">
-        <f>SUMIF($E$28:$E$28,$H30,$I$28:$I$28)</f>
+      <c r="L31" s="64"/>
+      <c r="N31" s="64"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="43"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="17"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="64">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="40"/>
-      <c r="K30" s="53">
-        <f>SUMIF($E$28:$E$28,$H30,$K$28:$K$28)</f>
+      <c r="J32" s="42"/>
+      <c r="K32" s="55">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L30" s="62"/>
-      <c r="N30" s="62"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="41"/>
-      <c r="C31" s="38"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="29" t="s">
+      <c r="L32" s="64"/>
+      <c r="N32" s="64"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="43"/>
+      <c r="C33" s="40"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="42"/>
+      <c r="K33" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="64"/>
+      <c r="N33" s="64"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="43"/>
+      <c r="C34" s="40"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="42"/>
+      <c r="K34" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="64"/>
+      <c r="N34" s="64"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="43"/>
+      <c r="C35" s="40"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="42"/>
+      <c r="K35" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="64"/>
+      <c r="N35" s="64"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="43"/>
+      <c r="C36" s="40"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="42"/>
+      <c r="K36" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="64"/>
+      <c r="N36" s="64"/>
+    </row>
+    <row r="37" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="43"/>
+      <c r="C37" s="40"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="64"/>
+      <c r="N37" s="64"/>
+    </row>
+    <row r="38" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="43"/>
+      <c r="C38" s="40"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="64"/>
+      <c r="N38" s="64"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="43"/>
+      <c r="C39" s="40"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="I31" s="62">
-        <f>SUMIF($E$28:$E$28,$H31,$I$28:$I$28)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="40"/>
-      <c r="K31" s="53">
-        <f>SUMIF($E$28:$E$28,$H31,$K$28:$K$28)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="62"/>
-      <c r="N31" s="62"/>
-    </row>
-    <row r="32" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="41"/>
-      <c r="C32" s="38"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="62"/>
-      <c r="N32" s="62"/>
-    </row>
-    <row r="33" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="41"/>
-      <c r="C33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="62"/>
-      <c r="N33" s="62"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="41"/>
-      <c r="C34" s="38"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62">
+      <c r="H39" s="64"/>
+      <c r="I39" s="64">
         <f>SUM(I28:I28)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="60"/>
-      <c r="K34" s="84">
-        <f>SUM(K29:K31)</f>
+      <c r="J39" s="62"/>
+      <c r="K39" s="83">
+        <f>SUM(K31:K36)</f>
         <v>0</v>
       </c>
-      <c r="L34" s="62"/>
-      <c r="N34" s="62"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L35" s="62"/>
-      <c r="N35" s="62"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="78" t="s">
+      <c r="L39" s="64"/>
+      <c r="N39" s="64"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L40" s="64"/>
+      <c r="N40" s="64"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="62"/>
-      <c r="N36" s="62"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="62"/>
-      <c r="N37" s="62"/>
-    </row>
-    <row r="38" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="62"/>
-      <c r="N38" s="62"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="62"/>
-      <c r="N39" s="62"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="58" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K40" s="57" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L40" s="62"/>
-      <c r="N40" s="62"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J41" s="58" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K41" s="63" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L41" s="62"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="62"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="64"/>
+      <c r="N41" s="64"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="71"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="64"/>
+      <c r="N42" s="64"/>
+    </row>
+    <row r="43" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="64"/>
+      <c r="N43" s="64"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="64"/>
+      <c r="N44" s="64"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45" s="60">
+        <f>K31</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="64"/>
+      <c r="N45" s="64"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J46" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K46" s="65">
+        <f>K32</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="64"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="64"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J42" s="58" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K42" s="63" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L42" s="62"/>
-      <c r="N42" s="62"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="24"/>
-      <c r="J43" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="K43" s="63">
-        <f t="shared" ref="K43:K45" si="0">K29</f>
+      <c r="J47" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K47" s="65">
+        <f t="shared" ref="K47:K50" si="2">K33</f>
         <v>0</v>
       </c>
-      <c r="L43" s="62"/>
-      <c r="N43" s="62"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="24"/>
-      <c r="J44" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="K44" s="63">
-        <f t="shared" si="0"/>
+      <c r="L47" s="64"/>
+      <c r="N47" s="64"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="26"/>
+      <c r="J48" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48" s="65">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L44" s="62"/>
-      <c r="N44" s="62"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J45" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="K45" s="63">
-        <f t="shared" si="0"/>
+      <c r="L48" s="64"/>
+      <c r="N48" s="64"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="26"/>
+      <c r="J49" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" s="65">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L45" s="62"/>
-      <c r="N45" s="62"/>
-    </row>
-    <row r="46" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J46" s="58"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="62"/>
-      <c r="N46" s="62"/>
-    </row>
-    <row r="47" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="30" t="s">
+      <c r="L49" s="64"/>
+      <c r="N49" s="64"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J50" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="K50" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="64"/>
+      <c r="N50" s="64"/>
+    </row>
+    <row r="51" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J51" s="61"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="64"/>
+      <c r="N51" s="64"/>
+    </row>
+    <row r="52" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="75"/>
-      <c r="E47" s="28" t="s">
+      <c r="D52" s="74"/>
+      <c r="E52" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F47" s="26">
-        <f>K1</f>
+      <c r="F52" s="28"/>
+      <c r="J52" s="61"/>
+      <c r="L52" s="64"/>
+      <c r="N52" s="64"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C53" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="75"/>
+      <c r="E53" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="29"/>
+      <c r="J53" s="61"/>
+      <c r="L53" s="64"/>
+      <c r="N53" s="64"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C54" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="75"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="29"/>
+      <c r="J54" s="61"/>
+      <c r="L54" s="64"/>
+      <c r="N54" s="64"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C55" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="76"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="29"/>
+      <c r="J55" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K55" s="54">
+        <f>SUM(K45:K50)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="58"/>
-      <c r="L47" s="62"/>
-      <c r="N47" s="62"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C48" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="76"/>
-      <c r="E48" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="27">
-        <f>K2</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="58"/>
-      <c r="L48" s="62"/>
-      <c r="N48" s="62"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C49" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="76"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="27"/>
-      <c r="J49" s="58"/>
-      <c r="L49" s="62"/>
-      <c r="N49" s="62"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C50" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="77"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="27"/>
-      <c r="J50" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="52" t="e">
-        <f>SUM(K40:K45)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L50" s="62"/>
-      <c r="N50" s="62"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="L51" s="62"/>
-      <c r="N51" s="62"/>
-    </row>
+      <c r="L55" s="64"/>
+      <c r="N55" s="64"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="L56" s="64"/>
+      <c r="N56" s="64"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="L57" s="64"/>
+      <c r="N57" s="64"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="L58" s="64"/>
+      <c r="N58" s="64"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="L59" s="64"/>
+      <c r="N59" s="64"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="L60" s="64"/>
+      <c r="N60" s="64"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="L61" s="64"/>
+      <c r="N61" s="64"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="L62" s="64"/>
+      <c r="N62" s="64"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="L63" s="64"/>
+      <c r="N63" s="64"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="M64" s="64"/>
+      <c r="O64" s="64"/>
+    </row>
+    <row r="65" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="M65" s="64"/>
+      <c r="O65" s="64"/>
+    </row>
+    <row r="66" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="M66" s="64"/>
+      <c r="O66" s="64"/>
+    </row>
+    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="M67" s="64"/>
+      <c r="O67" s="64"/>
+    </row>
+    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="M68" s="64"/>
+      <c r="O68" s="64"/>
+    </row>
+    <row r="69" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="M69" s="64"/>
+      <c r="O69" s="64"/>
+    </row>
+    <row r="70" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M70" s="64"/>
+      <c r="O70" s="64"/>
+    </row>
+    <row r="71" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M71" s="64"/>
+      <c r="O71" s="64"/>
+    </row>
+    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M72" s="64"/>
+      <c r="O72" s="64"/>
+    </row>
+    <row r="73" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M73" s="64"/>
+      <c r="O73" s="64"/>
+    </row>
+    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M74" s="64"/>
+      <c r="O74" s="64"/>
+    </row>
+    <row r="75" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M75" s="64"/>
+      <c r="O75" s="64"/>
+    </row>
+    <row r="76" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M76" s="64"/>
+      <c r="O76" s="64"/>
+    </row>
+    <row r="77" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M77" s="64"/>
+      <c r="O77" s="64"/>
+    </row>
+    <row r="78" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M78" s="64"/>
+      <c r="O78" s="64"/>
+    </row>
+    <row r="79" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M79" s="64"/>
+      <c r="O79" s="64"/>
+    </row>
+    <row r="80" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M80" s="64"/>
+      <c r="O80" s="64"/>
+    </row>
+    <row r="81" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M81" s="64"/>
+      <c r="O81" s="64"/>
+    </row>
+    <row r="82" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M82" s="64"/>
+      <c r="O82" s="64"/>
+    </row>
+    <row r="83" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M83" s="64"/>
+      <c r="O83" s="64"/>
+    </row>
+    <row r="84" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M84" s="64"/>
+      <c r="O84" s="64"/>
+    </row>
+    <row r="85" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M85" s="64"/>
+      <c r="O85" s="64"/>
+    </row>
+    <row r="86" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M86" s="64"/>
+      <c r="O86" s="64"/>
+    </row>
+    <row r="87" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M87" s="64"/>
+      <c r="O87" s="64"/>
+    </row>
+    <row r="88" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M88" s="64"/>
+      <c r="O88" s="64"/>
+    </row>
+    <row r="89" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M89" s="64"/>
+      <c r="O89" s="64"/>
+    </row>
+    <row r="90" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M90" s="64"/>
+      <c r="O90" s="64"/>
+    </row>
+    <row r="91" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M91" s="64"/>
+      <c r="O91" s="64"/>
+    </row>
+    <row r="92" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M92" s="64"/>
+      <c r="O92" s="64"/>
+    </row>
+    <row r="93" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M93" s="64"/>
+      <c r="O93" s="64"/>
+    </row>
+    <row r="94" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M94" s="64"/>
+      <c r="O94" s="64"/>
+    </row>
+    <row r="95" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M95" s="64"/>
+      <c r="O95" s="64"/>
+    </row>
+    <row r="96" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M96" s="64"/>
+      <c r="O96" s="64"/>
+    </row>
+    <row r="97" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M97" s="64"/>
+      <c r="O97" s="64"/>
+    </row>
+    <row r="98" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M98" s="64"/>
+      <c r="O98" s="64"/>
+    </row>
+    <row r="99" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M99" s="64"/>
+      <c r="O99" s="64"/>
+    </row>
+    <row r="100" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M100" s="64"/>
+      <c r="O100" s="64"/>
+    </row>
+    <row r="101" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M101" s="64"/>
+      <c r="O101" s="64"/>
+    </row>
+    <row r="102" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M102" s="64"/>
+      <c r="O102" s="64"/>
+    </row>
+    <row r="103" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M103" s="64"/>
+      <c r="O103" s="64"/>
+    </row>
+    <row r="104" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M104" s="64"/>
+      <c r="O104" s="64"/>
+    </row>
+    <row r="105" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M105" s="64"/>
+      <c r="O105" s="64"/>
+    </row>
+    <row r="106" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M106" s="64"/>
+      <c r="O106" s="64"/>
+    </row>
+    <row r="107" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M107" s="64"/>
+      <c r="O107" s="64"/>
+    </row>
+    <row r="108" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M108" s="64"/>
+      <c r="O108" s="64"/>
+    </row>
+    <row r="109" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M109" s="64"/>
+      <c r="O109" s="64"/>
+    </row>
+    <row r="110" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M110" s="64"/>
+      <c r="O110" s="64"/>
+    </row>
+    <row r="111" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M111" s="64"/>
+      <c r="O111" s="64"/>
+    </row>
+    <row r="112" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M112" s="64"/>
+      <c r="O112" s="64"/>
+    </row>
+    <row r="113" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M113" s="64"/>
+      <c r="O113" s="64"/>
+    </row>
+    <row r="114" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M114" s="64"/>
+      <c r="O114" s="64"/>
+    </row>
+    <row r="115" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M115" s="64"/>
+      <c r="O115" s="64"/>
+    </row>
+    <row r="116" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M116" s="64"/>
+      <c r="O116" s="64"/>
+    </row>
+    <row r="117" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M117" s="64"/>
+      <c r="O117" s="64"/>
+    </row>
+    <row r="118" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M118" s="64"/>
+      <c r="O118" s="64"/>
+    </row>
+    <row r="119" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M119" s="64"/>
+      <c r="O119" s="64"/>
+    </row>
+    <row r="120" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M120" s="64"/>
+      <c r="O120" s="64"/>
+    </row>
+    <row r="121" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M121" s="64"/>
+      <c r="O121" s="64"/>
+    </row>
+    <row r="122" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L122" s="17"/>
+      <c r="N122" s="64"/>
+    </row>
+    <row r="123" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M123" s="17"/>
+      <c r="O123" s="64"/>
+    </row>
+    <row r="124" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M124" s="31"/>
+      <c r="N124" s="64"/>
+      <c r="O124" s="64"/>
+    </row>
+    <row r="125" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M125" s="31"/>
+      <c r="N125" s="64"/>
+      <c r="O125" s="64"/>
+    </row>
+    <row r="126" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M126" s="31"/>
+      <c r="N126" s="64"/>
+      <c r="O126" s="64"/>
+    </row>
+    <row r="127" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M127" s="31"/>
+      <c r="N127" s="64"/>
+      <c r="O127" s="64"/>
+    </row>
+    <row r="128" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M128" s="31"/>
+      <c r="N128" s="64"/>
+      <c r="O128" s="64"/>
+    </row>
+    <row r="129" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="M129" s="31"/>
+      <c r="N129" s="64"/>
+      <c r="O129" s="64"/>
+    </row>
+    <row r="130" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L130" s="59"/>
+    </row>
+    <row r="131" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="O131" s="64"/>
+    </row>
+    <row r="136" spans="12:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="12:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="R143" s="17"/>
+    </row>
+    <row r="144" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+    </row>
+    <row r="145" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+    </row>
+    <row r="160" spans="12:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B25:M28">
-    <sortCondition ref="C25:C28"/>
-    <sortCondition ref="D25:D28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B25:M27">
+    <sortCondition ref="C25:C27"/>
+    <sortCondition ref="D25:D27"/>
   </sortState>
   <mergeCells count="10">
     <mergeCell ref="G13:K13"/>
